--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfrsf14-Cd160.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfrsf14-Cd160.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="H2">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="I2">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="J2">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.505264</v>
+        <v>0.9763746666666667</v>
       </c>
       <c r="N2">
-        <v>4.515792</v>
+        <v>2.929124</v>
       </c>
       <c r="O2">
-        <v>0.2261905736847353</v>
+        <v>0.1257320070262716</v>
       </c>
       <c r="P2">
-        <v>0.2333382679726151</v>
+        <v>0.1269157938307497</v>
       </c>
       <c r="Q2">
-        <v>5.210629388720001</v>
+        <v>3.681223778442222</v>
       </c>
       <c r="R2">
-        <v>46.89566449848</v>
+        <v>33.13101400598001</v>
       </c>
       <c r="S2">
-        <v>0.01496644241492394</v>
+        <v>0.007669978781397206</v>
       </c>
       <c r="T2">
-        <v>0.0157128979888995</v>
+        <v>0.007774394132443071</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="H3">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="I3">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="J3">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.889874</v>
       </c>
       <c r="O3">
-        <v>0.2449278897934341</v>
+        <v>0.2098967719105039</v>
       </c>
       <c r="P3">
-        <v>0.2526676892479378</v>
+        <v>0.2118729833364321</v>
       </c>
       <c r="Q3">
-        <v>5.64227076259</v>
+        <v>6.145427930803334</v>
       </c>
       <c r="R3">
-        <v>50.78043686330999</v>
+        <v>55.30885137723</v>
       </c>
       <c r="S3">
-        <v>0.01620624192549918</v>
+        <v>0.01280424789927155</v>
       </c>
       <c r="T3">
-        <v>0.01701453285283555</v>
+        <v>0.01297855868648303</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="H4">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="I4">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="J4">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.823592666666667</v>
+        <v>2.486016</v>
       </c>
       <c r="N4">
-        <v>5.470778</v>
+        <v>7.458048</v>
       </c>
       <c r="O4">
-        <v>0.2740246703838061</v>
+        <v>0.3201350791356976</v>
       </c>
       <c r="P4">
-        <v>0.2826839373874367</v>
+        <v>0.3231492017230527</v>
       </c>
       <c r="Q4">
-        <v>6.312557492896667</v>
+        <v>9.373021981439999</v>
       </c>
       <c r="R4">
-        <v>56.81301743607</v>
+        <v>84.35719783296</v>
       </c>
       <c r="S4">
-        <v>0.01813150027765512</v>
+        <v>0.0195290707770111</v>
       </c>
       <c r="T4">
-        <v>0.01903581401311567</v>
+        <v>0.01979493002367902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="H5">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="I5">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="J5">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.6115605</v>
+        <v>0.217295</v>
       </c>
       <c r="N5">
-        <v>1.223121</v>
+        <v>0.43459</v>
       </c>
       <c r="O5">
-        <v>0.09189698307932929</v>
+        <v>0.02798202104121269</v>
       </c>
       <c r="P5">
-        <v>0.0632006380411084</v>
+        <v>0.0188303174740658</v>
       </c>
       <c r="Q5">
-        <v>2.1169808846025</v>
+        <v>0.8192669763416666</v>
       </c>
       <c r="R5">
-        <v>12.701885307615</v>
+        <v>4.91560185805</v>
       </c>
       <c r="S5">
-        <v>0.006080584539650249</v>
+        <v>0.001706975914270313</v>
       </c>
       <c r="T5">
-        <v>0.004255903615817722</v>
+        <v>0.001153475901333789</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="H6">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="I6">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="J6">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.084473333333333</v>
+        <v>2.455878333333333</v>
       </c>
       <c r="N6">
-        <v>3.25342</v>
+        <v>7.367635</v>
       </c>
       <c r="O6">
-        <v>0.1629598830586952</v>
+        <v>0.3162541208863143</v>
       </c>
       <c r="P6">
-        <v>0.1681094673509022</v>
+        <v>0.3192317036356997</v>
       </c>
       <c r="Q6">
-        <v>3.754018313033334</v>
+        <v>9.259393987036111</v>
       </c>
       <c r="R6">
-        <v>33.7861648173</v>
+        <v>83.33454588332501</v>
       </c>
       <c r="S6">
-        <v>0.0107826319461928</v>
+        <v>0.01929232225029715</v>
       </c>
       <c r="T6">
-        <v>0.01132041878258463</v>
+        <v>0.01955495851796721</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>11.995387</v>
       </c>
       <c r="I7">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="J7">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.505264</v>
+        <v>0.9763746666666667</v>
       </c>
       <c r="N7">
-        <v>4.515792</v>
+        <v>2.929124</v>
       </c>
       <c r="O7">
-        <v>0.2261905736847353</v>
+        <v>0.1257320070262716</v>
       </c>
       <c r="P7">
-        <v>0.2333382679726151</v>
+        <v>0.1269157938307497</v>
       </c>
       <c r="Q7">
-        <v>6.018741405722668</v>
+        <v>3.903997327887556</v>
       </c>
       <c r="R7">
-        <v>54.168672651504</v>
+        <v>35.135975950988</v>
       </c>
       <c r="S7">
-        <v>0.01728757505841243</v>
+        <v>0.008134136490936207</v>
       </c>
       <c r="T7">
-        <v>0.01814979778343391</v>
+        <v>0.008244870658704186</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>11.995387</v>
       </c>
       <c r="I8">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="J8">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>4.889874</v>
       </c>
       <c r="O8">
-        <v>0.2449278897934341</v>
+        <v>0.2098967719105039</v>
       </c>
       <c r="P8">
-        <v>0.2526676892479378</v>
+        <v>0.2118729833364321</v>
       </c>
       <c r="Q8">
         <v>6.517325667915334</v>
@@ -948,10 +948,10 @@
         <v>58.655931011238</v>
       </c>
       <c r="S8">
-        <v>0.01871965400558295</v>
+        <v>0.01357911189129589</v>
       </c>
       <c r="T8">
-        <v>0.01965330207557636</v>
+        <v>0.01376397129905066</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>11.995387</v>
       </c>
       <c r="I9">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="J9">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.823592666666667</v>
+        <v>2.486016</v>
       </c>
       <c r="N9">
-        <v>5.470778</v>
+        <v>7.458048</v>
       </c>
       <c r="O9">
-        <v>0.2740246703838061</v>
+        <v>0.3201350791356976</v>
       </c>
       <c r="P9">
-        <v>0.2826839373874367</v>
+        <v>0.3231492017230527</v>
       </c>
       <c r="Q9">
-        <v>7.291566589009556</v>
+        <v>9.940241336064</v>
       </c>
       <c r="R9">
-        <v>65.62409930108601</v>
+        <v>89.46217202457601</v>
       </c>
       <c r="S9">
-        <v>0.02094349901477115</v>
+        <v>0.02071089526696507</v>
       </c>
       <c r="T9">
-        <v>0.02198806198736767</v>
+        <v>0.02099284329595041</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>11.995387</v>
       </c>
       <c r="I10">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="J10">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.6115605</v>
+        <v>0.217295</v>
       </c>
       <c r="N10">
-        <v>1.223121</v>
+        <v>0.43459</v>
       </c>
       <c r="O10">
-        <v>0.09189698307932929</v>
+        <v>0.02798202104121269</v>
       </c>
       <c r="P10">
-        <v>0.0632006380411084</v>
+        <v>0.0188303174740658</v>
       </c>
       <c r="Q10">
-        <v>2.4453016238045</v>
+        <v>0.8688458727216667</v>
       </c>
       <c r="R10">
-        <v>14.671809742827</v>
+        <v>5.21307523633</v>
       </c>
       <c r="S10">
-        <v>0.007023617150553148</v>
+        <v>0.001810275552142534</v>
       </c>
       <c r="T10">
-        <v>0.00491594803628499</v>
+        <v>0.001223279840514178</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>11.995387</v>
       </c>
       <c r="I11">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="J11">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.084473333333333</v>
+        <v>2.455878333333333</v>
       </c>
       <c r="N11">
-        <v>3.25342</v>
+        <v>7.367635</v>
       </c>
       <c r="O11">
-        <v>0.1629598830586952</v>
+        <v>0.3162541208863143</v>
       </c>
       <c r="P11">
-        <v>0.1681094673509022</v>
+        <v>0.3192317036356997</v>
       </c>
       <c r="Q11">
-        <v>4.336225774837779</v>
+        <v>9.819737011082779</v>
       </c>
       <c r="R11">
-        <v>39.02603197354001</v>
+        <v>88.37763309974501</v>
       </c>
       <c r="S11">
-        <v>0.01245490103320529</v>
+        <v>0.02045981962709628</v>
       </c>
       <c r="T11">
-        <v>0.01307609276613705</v>
+        <v>0.02073834963475156</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="H12">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="I12">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="J12">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.505264</v>
+        <v>0.9763746666666667</v>
       </c>
       <c r="N12">
-        <v>4.515792</v>
+        <v>2.929124</v>
       </c>
       <c r="O12">
-        <v>0.2261905736847353</v>
+        <v>0.1257320070262716</v>
       </c>
       <c r="P12">
-        <v>0.2333382679726151</v>
+        <v>0.1269157938307497</v>
       </c>
       <c r="Q12">
-        <v>32.73540922227733</v>
+        <v>30.66545056655422</v>
       </c>
       <c r="R12">
-        <v>294.618683000496</v>
+        <v>275.989055098988</v>
       </c>
       <c r="S12">
-        <v>0.09402561197593381</v>
+        <v>0.06389270778506881</v>
       </c>
       <c r="T12">
-        <v>0.0987151661271536</v>
+        <v>0.06476251195308419</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="H13">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="I13">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="J13">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>4.889874</v>
       </c>
       <c r="O13">
-        <v>0.2449278897934341</v>
+        <v>0.2098967719105039</v>
       </c>
       <c r="P13">
-        <v>0.2526676892479378</v>
+        <v>0.2118729833364321</v>
       </c>
       <c r="Q13">
-        <v>35.44716551058467</v>
+        <v>51.19284448991533</v>
       </c>
       <c r="R13">
-        <v>319.024489595262</v>
+        <v>460.735600409238</v>
       </c>
       <c r="S13">
-        <v>0.1018145643854295</v>
+        <v>0.1066623641019655</v>
       </c>
       <c r="T13">
-        <v>0.1068925947543308</v>
+        <v>0.1081144135154659</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="H14">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="I14">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="J14">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.823592666666667</v>
+        <v>2.486016</v>
       </c>
       <c r="N14">
-        <v>5.470778</v>
+        <v>7.458048</v>
       </c>
       <c r="O14">
-        <v>0.2740246703838061</v>
+        <v>0.3201350791356976</v>
       </c>
       <c r="P14">
-        <v>0.2826839373874367</v>
+        <v>0.3231492017230527</v>
       </c>
       <c r="Q14">
-        <v>39.65819430882377</v>
+        <v>78.07945388006399</v>
       </c>
       <c r="R14">
-        <v>356.923748779414</v>
+        <v>702.7150849205759</v>
       </c>
       <c r="S14">
-        <v>0.1139098633051467</v>
+        <v>0.1626817033048163</v>
       </c>
       <c r="T14">
-        <v>0.1195911501492489</v>
+        <v>0.1648963726857161</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="H15">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="I15">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="J15">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.6115605</v>
+        <v>0.217295</v>
       </c>
       <c r="N15">
-        <v>1.223121</v>
+        <v>0.43459</v>
       </c>
       <c r="O15">
-        <v>0.09189698307932929</v>
+        <v>0.02798202104121269</v>
       </c>
       <c r="P15">
-        <v>0.0632006380411084</v>
+        <v>0.0188303174740658</v>
       </c>
       <c r="Q15">
-        <v>13.2997821190705</v>
+        <v>6.824684527721666</v>
       </c>
       <c r="R15">
-        <v>79.79869271442298</v>
+        <v>40.94810716633</v>
       </c>
       <c r="S15">
-        <v>0.03820084069824832</v>
+        <v>0.01421950651951559</v>
       </c>
       <c r="T15">
-        <v>0.02673741233179257</v>
+        <v>0.009608722631643744</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="H16">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="I16">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="J16">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.084473333333333</v>
+        <v>2.455878333333333</v>
       </c>
       <c r="N16">
-        <v>3.25342</v>
+        <v>7.367635</v>
       </c>
       <c r="O16">
-        <v>0.1629598830586952</v>
+        <v>0.3162541208863143</v>
       </c>
       <c r="P16">
-        <v>0.1681094673509022</v>
+        <v>0.3192317036356997</v>
       </c>
       <c r="Q16">
-        <v>23.58435354682889</v>
+        <v>77.1329062494161</v>
       </c>
       <c r="R16">
-        <v>212.25918192146</v>
+        <v>694.196156244745</v>
       </c>
       <c r="S16">
-        <v>0.06774111972268489</v>
+        <v>0.1607095329941803</v>
       </c>
       <c r="T16">
-        <v>0.0711197273438201</v>
+        <v>0.1628973542101534</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.731955</v>
+        <v>0.7679895</v>
       </c>
       <c r="H17">
-        <v>5.46391</v>
+        <v>1.535979</v>
       </c>
       <c r="I17">
-        <v>0.0522203897564463</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="J17">
-        <v>0.03543032157151783</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.505264</v>
+        <v>0.9763746666666667</v>
       </c>
       <c r="N17">
-        <v>4.515792</v>
+        <v>2.929124</v>
       </c>
       <c r="O17">
-        <v>0.2261905736847353</v>
+        <v>0.1257320070262716</v>
       </c>
       <c r="P17">
-        <v>0.2333382679726151</v>
+        <v>0.1269157938307497</v>
       </c>
       <c r="Q17">
-        <v>4.112313511120001</v>
+        <v>0.749845492066</v>
       </c>
       <c r="R17">
-        <v>24.67388106672</v>
+        <v>4.499072952396</v>
       </c>
       <c r="S17">
-        <v>0.01181175991705106</v>
+        <v>0.001562333441165137</v>
       </c>
       <c r="T17">
-        <v>0.008267249869210755</v>
+        <v>0.001055734857865427</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.731955</v>
+        <v>0.7679895</v>
       </c>
       <c r="H18">
-        <v>5.46391</v>
+        <v>1.535979</v>
       </c>
       <c r="I18">
-        <v>0.0522203897564463</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="J18">
-        <v>0.03543032157151783</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>4.889874</v>
       </c>
       <c r="O18">
-        <v>0.2449278897934341</v>
+        <v>0.2098967719105039</v>
       </c>
       <c r="P18">
-        <v>0.2526676892479378</v>
+        <v>0.2118729833364321</v>
       </c>
       <c r="Q18">
-        <v>4.45297190789</v>
+        <v>1.251790629441</v>
       </c>
       <c r="R18">
-        <v>26.71783144734</v>
+        <v>7.510743776646</v>
       </c>
       <c r="S18">
-        <v>0.01279022986723705</v>
+        <v>0.002608156456771354</v>
       </c>
       <c r="T18">
-        <v>0.008952097480786774</v>
+        <v>0.001762441751311945</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.731955</v>
+        <v>0.7679895</v>
       </c>
       <c r="H19">
-        <v>5.46391</v>
+        <v>1.535979</v>
       </c>
       <c r="I19">
-        <v>0.0522203897564463</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="J19">
-        <v>0.03543032157151783</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.823592666666667</v>
+        <v>2.486016</v>
       </c>
       <c r="N19">
-        <v>5.470778</v>
+        <v>7.458048</v>
       </c>
       <c r="O19">
-        <v>0.2740246703838061</v>
+        <v>0.3201350791356976</v>
       </c>
       <c r="P19">
-        <v>0.2826839373874367</v>
+        <v>0.3231492017230527</v>
       </c>
       <c r="Q19">
-        <v>4.981973103663334</v>
+        <v>1.909234184832</v>
       </c>
       <c r="R19">
-        <v>29.89183862198</v>
+        <v>11.455405108992</v>
       </c>
       <c r="S19">
-        <v>0.01430967509032408</v>
+        <v>0.003977966721864547</v>
       </c>
       <c r="T19">
-        <v>0.0100155828047397</v>
+        <v>0.002688080547369635</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.731955</v>
+        <v>0.7679895</v>
       </c>
       <c r="H20">
-        <v>5.46391</v>
+        <v>1.535979</v>
       </c>
       <c r="I20">
-        <v>0.0522203897564463</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="J20">
-        <v>0.03543032157151783</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.6115605</v>
+        <v>0.217295</v>
       </c>
       <c r="N20">
-        <v>1.223121</v>
+        <v>0.43459</v>
       </c>
       <c r="O20">
-        <v>0.09189698307932929</v>
+        <v>0.02798202104121269</v>
       </c>
       <c r="P20">
-        <v>0.0632006380411084</v>
+        <v>0.0188303174740658</v>
       </c>
       <c r="Q20">
-        <v>1.6707557657775</v>
+        <v>0.1668802784025</v>
       </c>
       <c r="R20">
-        <v>6.683023063109999</v>
+        <v>0.66752111361</v>
       </c>
       <c r="S20">
-        <v>0.004798896273844127</v>
+        <v>0.0003477018164113009</v>
       </c>
       <c r="T20">
-        <v>0.002239218929321574</v>
+        <v>0.0001566378930628188</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.731955</v>
+        <v>0.7679895</v>
       </c>
       <c r="H21">
-        <v>5.46391</v>
+        <v>1.535979</v>
       </c>
       <c r="I21">
-        <v>0.0522203897564463</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="J21">
-        <v>0.03543032157151783</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1.084473333333333</v>
+        <v>2.455878333333333</v>
       </c>
       <c r="N21">
-        <v>3.25342</v>
+        <v>7.367635</v>
       </c>
       <c r="O21">
-        <v>0.1629598830586952</v>
+        <v>0.3162541208863143</v>
       </c>
       <c r="P21">
-        <v>0.1681094673509022</v>
+        <v>0.3192317036356997</v>
       </c>
       <c r="Q21">
-        <v>2.962732345366667</v>
+        <v>1.8860887732775</v>
       </c>
       <c r="R21">
-        <v>17.7763940722</v>
+        <v>11.316532639665</v>
       </c>
       <c r="S21">
-        <v>0.008509828607989977</v>
+        <v>0.003929742319819409</v>
       </c>
       <c r="T21">
-        <v>0.005956172487459045</v>
+        <v>0.002655493277010242</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.37655766666667</v>
+        <v>21.861327</v>
       </c>
       <c r="H22">
-        <v>61.129673</v>
+        <v>65.58398100000001</v>
       </c>
       <c r="I22">
-        <v>0.3894909627896643</v>
+        <v>0.3537114500877385</v>
       </c>
       <c r="J22">
-        <v>0.3963908578200832</v>
+        <v>0.3551826046864394</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.505264</v>
+        <v>0.9763746666666667</v>
       </c>
       <c r="N22">
-        <v>4.515792</v>
+        <v>2.929124</v>
       </c>
       <c r="O22">
-        <v>0.2261905736847353</v>
+        <v>0.1257320070262716</v>
       </c>
       <c r="P22">
-        <v>0.2333382679726151</v>
+        <v>0.1269157938307497</v>
       </c>
       <c r="Q22">
-        <v>30.67209869955734</v>
+        <v>21.344845862516</v>
       </c>
       <c r="R22">
-        <v>276.048888296016</v>
+        <v>192.103612762644</v>
       </c>
       <c r="S22">
-        <v>0.08809918431841407</v>
+        <v>0.04447285052770426</v>
       </c>
       <c r="T22">
-        <v>0.09249315620391735</v>
+        <v>0.04507828222865281</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.37655766666667</v>
+        <v>21.861327</v>
       </c>
       <c r="H23">
-        <v>61.129673</v>
+        <v>65.58398100000001</v>
       </c>
       <c r="I23">
-        <v>0.3894909627896643</v>
+        <v>0.3537114500877385</v>
       </c>
       <c r="J23">
-        <v>0.3963908578200832</v>
+        <v>0.3551826046864394</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>4.889874</v>
       </c>
       <c r="O23">
-        <v>0.2449278897934341</v>
+        <v>0.2098967719105039</v>
       </c>
       <c r="P23">
-        <v>0.2526676892479378</v>
+        <v>0.2118729833364321</v>
       </c>
       <c r="Q23">
-        <v>33.21293318124467</v>
+        <v>35.633044834266</v>
       </c>
       <c r="R23">
-        <v>298.916398631202</v>
+        <v>320.697403508394</v>
       </c>
       <c r="S23">
-        <v>0.09539719960968544</v>
+        <v>0.07424289156119965</v>
       </c>
       <c r="T23">
-        <v>0.1001551620844083</v>
+        <v>0.07525359808412051</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.37655766666667</v>
+        <v>21.861327</v>
       </c>
       <c r="H24">
-        <v>61.129673</v>
+        <v>65.58398100000001</v>
       </c>
       <c r="I24">
-        <v>0.3894909627896643</v>
+        <v>0.3537114500877385</v>
       </c>
       <c r="J24">
-        <v>0.3963908578200832</v>
+        <v>0.3551826046864394</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.823592666666667</v>
+        <v>2.486016</v>
       </c>
       <c r="N24">
-        <v>5.470778</v>
+        <v>7.458048</v>
       </c>
       <c r="O24">
-        <v>0.2740246703838061</v>
+        <v>0.3201350791356976</v>
       </c>
       <c r="P24">
-        <v>0.2826839373874367</v>
+        <v>0.3231492017230527</v>
       </c>
       <c r="Q24">
-        <v>37.15854113284378</v>
+        <v>54.34760870323201</v>
       </c>
       <c r="R24">
-        <v>334.426870195594</v>
+        <v>489.1284783290881</v>
       </c>
       <c r="S24">
-        <v>0.1067301326959091</v>
+        <v>0.1132354430650405</v>
       </c>
       <c r="T24">
-        <v>0.1120533284329647</v>
+        <v>0.1147769751703375</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.37655766666667</v>
+        <v>21.861327</v>
       </c>
       <c r="H25">
-        <v>61.129673</v>
+        <v>65.58398100000001</v>
       </c>
       <c r="I25">
-        <v>0.3894909627896643</v>
+        <v>0.3537114500877385</v>
       </c>
       <c r="J25">
-        <v>0.3963908578200832</v>
+        <v>0.3551826046864394</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>0.6115605</v>
+        <v>0.217295</v>
       </c>
       <c r="N25">
-        <v>1.223121</v>
+        <v>0.43459</v>
       </c>
       <c r="O25">
-        <v>0.09189698307932929</v>
+        <v>0.02798202104121269</v>
       </c>
       <c r="P25">
-        <v>0.0632006380411084</v>
+        <v>0.0188303174740658</v>
       </c>
       <c r="Q25">
-        <v>12.4614977949055</v>
+        <v>4.750357050465</v>
       </c>
       <c r="R25">
-        <v>74.76898676943298</v>
+        <v>28.50214230279</v>
       </c>
       <c r="S25">
-        <v>0.03579304441703346</v>
+        <v>0.00989756123887295</v>
       </c>
       <c r="T25">
-        <v>0.02505215512789154</v>
+        <v>0.006688201207511263</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.37655766666667</v>
+        <v>21.861327</v>
       </c>
       <c r="H26">
-        <v>61.129673</v>
+        <v>65.58398100000001</v>
       </c>
       <c r="I26">
-        <v>0.3894909627896643</v>
+        <v>0.3537114500877385</v>
       </c>
       <c r="J26">
-        <v>0.3963908578200832</v>
+        <v>0.3551826046864394</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>1.084473333333333</v>
+        <v>2.455878333333333</v>
       </c>
       <c r="N26">
-        <v>3.25342</v>
+        <v>7.367635</v>
       </c>
       <c r="O26">
-        <v>0.1629598830586952</v>
+        <v>0.3162541208863143</v>
       </c>
       <c r="P26">
-        <v>0.1681094673509022</v>
+        <v>0.3192317036356997</v>
       </c>
       <c r="Q26">
-        <v>22.09783341462889</v>
+        <v>53.688759317215</v>
       </c>
       <c r="R26">
-        <v>198.88050073166</v>
+        <v>483.1988338549351</v>
       </c>
       <c r="S26">
-        <v>0.06347140174862231</v>
+        <v>0.1118627036949212</v>
       </c>
       <c r="T26">
-        <v>0.06663705597090142</v>
+        <v>0.1133855479958173</v>
       </c>
     </row>
   </sheetData>
